--- a/biology/Botanique/Stipa/Stipa.xlsx
+++ b/biology/Botanique/Stipa/Stipa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stipa est un genre de plantes monocotylédones de la famille des Poaceae. Ce sont les stipes véritables.
 De nombreuses espèces de Stipa sont cultivées comme plantes fourragères. D'autres, telles que  Stipa brachytricha, Stipa arundinacea, Stipa splendens, Stipa calamagrostis, Stipa gigantea et Stipa pulchra, sont utilisées comme plantes ornementales. Une espèce, l'alfa (Stipa tenacissima), est utilisée pour la fabrication d'objets de sparterie et de papier.
@@ -512,9 +524,11 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (9 juillet 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (9 juillet 2016) :
 Stipa academica Hicken (1924)
 Stipa acuta Swallen (1940)
 Stipa adamii M.Nobis (2010)
